--- a/output/part1/grs_size_op2.xlsx
+++ b/output/part1/grs_size_op2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.856343882720084</v>
+        <v>11.05753622199721</v>
       </c>
       <c r="C2" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06841802219687453</v>
+        <v>0.005421193709372994</v>
       </c>
       <c r="E2" t="n">
-        <v>-67.41518082002342</v>
+        <v>0.7303306206638861</v>
       </c>
       <c r="F2" t="n">
-        <v>4544.806604996453</v>
+        <v>0.5333828154792971</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.85797847482938</v>
+        <v>11.30900252532362</v>
       </c>
       <c r="C3" t="n">
-        <v>3.219646771412954e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06880577134234014</v>
+        <v>0.005422450886597523</v>
       </c>
       <c r="E3" t="n">
-        <v>-67.79724650849298</v>
+        <v>0.7304999846585886</v>
       </c>
       <c r="F3" t="n">
-        <v>4596.466634133362</v>
+        <v>0.5336302275861982</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.8533199161003</v>
+        <v>10.94425829463008</v>
       </c>
       <c r="C4" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06795777782843035</v>
+        <v>0.00539328069052422</v>
       </c>
       <c r="E4" t="n">
-        <v>-66.96168251177389</v>
+        <v>0.7265702436190331</v>
       </c>
       <c r="F4" t="n">
-        <v>4483.866924807604</v>
+        <v>0.527904318912621</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.61271594701246</v>
+        <v>11.36532305674047</v>
       </c>
       <c r="C5" t="n">
-        <v>1.343369859796439e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07329846189107375</v>
+        <v>0.005564303281522381</v>
       </c>
       <c r="E5" t="n">
-        <v>-72.22408516863072</v>
+        <v>0.7496100097161716</v>
       </c>
       <c r="F5" t="n">
-        <v>5216.318478445623</v>
+        <v>0.561915166666679</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.844981147502536</v>
+        <v>11.19464679770002</v>
       </c>
       <c r="C6" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06905001426574266</v>
+        <v>0.005394290914333699</v>
       </c>
       <c r="E6" t="n">
-        <v>-68.03790942619339</v>
+        <v>0.7267063386234435</v>
       </c>
       <c r="F6" t="n">
-        <v>4629.157119086894</v>
+        <v>0.528102102595491</v>
       </c>
     </row>
   </sheetData>
